--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.824357333333333</v>
+        <v>3.317023666666666</v>
       </c>
       <c r="H2">
-        <v>5.473072</v>
+        <v>9.951070999999999</v>
       </c>
       <c r="I2">
-        <v>0.003038792251822429</v>
+        <v>0.005526424869593284</v>
       </c>
       <c r="J2">
-        <v>0.003038792251822428</v>
+        <v>0.005526424869593283</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.815322333333333</v>
+        <v>7.393757999999999</v>
       </c>
       <c r="N2">
-        <v>8.445967</v>
+        <v>22.181274</v>
       </c>
       <c r="O2">
-        <v>0.4327245671751157</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="P2">
-        <v>0.4327245671751158</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="Q2">
-        <v>5.136153944513778</v>
+        <v>24.52527027160599</v>
       </c>
       <c r="R2">
-        <v>46.225385500624</v>
+        <v>220.727432444454</v>
       </c>
       <c r="S2">
-        <v>0.001314960061904956</v>
+        <v>0.003802236545865664</v>
       </c>
       <c r="T2">
-        <v>0.001314960061904956</v>
+        <v>0.003802236545865663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.824357333333333</v>
+        <v>3.317023666666666</v>
       </c>
       <c r="H3">
-        <v>5.473072</v>
+        <v>9.951070999999999</v>
       </c>
       <c r="I3">
-        <v>0.003038792251822429</v>
+        <v>0.005526424869593284</v>
       </c>
       <c r="J3">
-        <v>0.003038792251822428</v>
+        <v>0.005526424869593283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.424727000000001</v>
       </c>
       <c r="O3">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="P3">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="Q3">
-        <v>5.123237494593779</v>
+        <v>9.315006281401889</v>
       </c>
       <c r="R3">
-        <v>46.109137451344</v>
+        <v>83.835056532617</v>
       </c>
       <c r="S3">
-        <v>0.001311653187545293</v>
+        <v>0.00144413728843263</v>
       </c>
       <c r="T3">
-        <v>0.001311653187545293</v>
+        <v>0.00144413728843263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.824357333333333</v>
+        <v>3.317023666666666</v>
       </c>
       <c r="H4">
-        <v>5.473072</v>
+        <v>9.951070999999999</v>
       </c>
       <c r="I4">
-        <v>0.003038792251822429</v>
+        <v>0.005526424869593284</v>
       </c>
       <c r="J4">
-        <v>0.003038792251822428</v>
+        <v>0.005526424869593283</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.882473</v>
+        <v>0.544582</v>
       </c>
       <c r="N4">
-        <v>2.647419</v>
+        <v>1.633746</v>
       </c>
       <c r="O4">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802889</v>
       </c>
       <c r="P4">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802888</v>
       </c>
       <c r="Q4">
-        <v>1.609946089018667</v>
+        <v>1.806391382440666</v>
       </c>
       <c r="R4">
-        <v>14.489514801168</v>
+        <v>16.257522441966</v>
       </c>
       <c r="S4">
-        <v>0.0004121790023721802</v>
+        <v>0.0002800510352949901</v>
       </c>
       <c r="T4">
-        <v>0.0004121790023721802</v>
+        <v>0.00028005103529499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1731.983032</v>
       </c>
       <c r="I5">
-        <v>0.961642130403093</v>
+        <v>0.9618737623074323</v>
       </c>
       <c r="J5">
-        <v>0.961642130403093</v>
+        <v>0.961873762307432</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.815322333333333</v>
+        <v>7.393757999999999</v>
       </c>
       <c r="N5">
-        <v>8.445967</v>
+        <v>22.181274</v>
       </c>
       <c r="O5">
-        <v>0.4327245671751157</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="P5">
-        <v>0.4327245671751158</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="Q5">
-        <v>1625.363503647994</v>
+        <v>4268.621132904752</v>
       </c>
       <c r="R5">
-        <v>14628.27153283194</v>
+        <v>38417.59019614277</v>
       </c>
       <c r="S5">
-        <v>0.4161261746560346</v>
+        <v>0.6617789362662191</v>
       </c>
       <c r="T5">
-        <v>0.4161261746560346</v>
+        <v>0.6617789362662189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1731.983032</v>
       </c>
       <c r="I6">
-        <v>0.961642130403093</v>
+        <v>0.9618737623074323</v>
       </c>
       <c r="J6">
-        <v>0.961642130403093</v>
+        <v>0.961873762307432</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>8.424727000000001</v>
       </c>
       <c r="O6">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="P6">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="Q6">
         <v>1621.276023692474</v>
@@ -821,10 +821,10 @@
         <v>14591.48421323227</v>
       </c>
       <c r="S6">
-        <v>0.4150796965026516</v>
+        <v>0.2513519679885518</v>
       </c>
       <c r="T6">
-        <v>0.4150796965026516</v>
+        <v>0.2513519679885517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1731.983032</v>
       </c>
       <c r="I7">
-        <v>0.961642130403093</v>
+        <v>0.9618737623074323</v>
       </c>
       <c r="J7">
-        <v>0.961642130403093</v>
+        <v>0.961873762307432</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.882473</v>
+        <v>0.544582</v>
       </c>
       <c r="N7">
-        <v>2.647419</v>
+        <v>1.633746</v>
       </c>
       <c r="O7">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802889</v>
       </c>
       <c r="P7">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802888</v>
       </c>
       <c r="Q7">
-        <v>509.4760873993786</v>
+        <v>314.4022611775413</v>
       </c>
       <c r="R7">
-        <v>4585.284786594408</v>
+        <v>2829.620350597872</v>
       </c>
       <c r="S7">
-        <v>0.1304362592444068</v>
+        <v>0.04874285805266147</v>
       </c>
       <c r="T7">
-        <v>0.1304362592444068</v>
+        <v>0.04874285805266145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.403171</v>
+        <v>18.65467933333333</v>
       </c>
       <c r="H8">
-        <v>61.209513</v>
+        <v>55.964038</v>
       </c>
       <c r="I8">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031479</v>
       </c>
       <c r="J8">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031478</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.815322333333333</v>
+        <v>7.393757999999999</v>
       </c>
       <c r="N8">
-        <v>8.445967</v>
+        <v>22.181274</v>
       </c>
       <c r="O8">
-        <v>0.4327245671751157</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="P8">
-        <v>0.4327245671751158</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="Q8">
-        <v>57.44150298711899</v>
+        <v>137.928184558268</v>
       </c>
       <c r="R8">
-        <v>516.973526884071</v>
+        <v>1241.353661024412</v>
       </c>
       <c r="S8">
-        <v>0.014706195168573</v>
+        <v>0.02138347827463142</v>
       </c>
       <c r="T8">
-        <v>0.014706195168573</v>
+        <v>0.02138347827463142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.403171</v>
+        <v>18.65467933333333</v>
       </c>
       <c r="H9">
-        <v>61.209513</v>
+        <v>55.964038</v>
       </c>
       <c r="I9">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031479</v>
       </c>
       <c r="J9">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031478</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>8.424727000000001</v>
       </c>
       <c r="O9">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="P9">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="Q9">
-        <v>57.29704853643901</v>
+        <v>52.38686021862512</v>
       </c>
       <c r="R9">
-        <v>515.673436827951</v>
+        <v>471.4817419676261</v>
       </c>
       <c r="S9">
-        <v>0.01466921188585588</v>
+        <v>0.008121714143840468</v>
       </c>
       <c r="T9">
-        <v>0.01466921188585588</v>
+        <v>0.008121714143840464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.403171</v>
+        <v>18.65467933333333</v>
       </c>
       <c r="H10">
-        <v>61.209513</v>
+        <v>55.964038</v>
       </c>
       <c r="I10">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031479</v>
       </c>
       <c r="J10">
-        <v>0.03398511728737064</v>
+        <v>0.03108017734031478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.882473</v>
+        <v>0.544582</v>
       </c>
       <c r="N10">
-        <v>2.647419</v>
+        <v>1.633746</v>
       </c>
       <c r="O10">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802889</v>
       </c>
       <c r="P10">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802888</v>
       </c>
       <c r="Q10">
-        <v>18.005247521883</v>
+        <v>10.15900258070533</v>
       </c>
       <c r="R10">
-        <v>162.047227696947</v>
+        <v>91.431023226348</v>
       </c>
       <c r="S10">
-        <v>0.004609710232941755</v>
+        <v>0.001574984921842902</v>
       </c>
       <c r="T10">
-        <v>0.004609710232941754</v>
+        <v>0.001574984921842901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8008510000000001</v>
+        <v>0.9121026666666667</v>
       </c>
       <c r="H11">
-        <v>2.402553</v>
+        <v>2.736308</v>
       </c>
       <c r="I11">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="J11">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.815322333333333</v>
+        <v>7.393757999999999</v>
       </c>
       <c r="N11">
-        <v>8.445967</v>
+        <v>22.181274</v>
       </c>
       <c r="O11">
-        <v>0.4327245671751157</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="P11">
-        <v>0.4327245671751158</v>
+        <v>0.6880101757622353</v>
       </c>
       <c r="Q11">
-        <v>2.254653705972333</v>
+        <v>6.743866388488</v>
       </c>
       <c r="R11">
-        <v>20.291883353751</v>
+        <v>60.694797496392</v>
       </c>
       <c r="S11">
-        <v>0.0005772372886031715</v>
+        <v>0.001045524675519307</v>
       </c>
       <c r="T11">
-        <v>0.0005772372886031715</v>
+        <v>0.001045524675519307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8008510000000001</v>
+        <v>0.9121026666666667</v>
       </c>
       <c r="H12">
-        <v>2.402553</v>
+        <v>2.736308</v>
       </c>
       <c r="I12">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="J12">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>8.424727000000001</v>
       </c>
       <c r="O12">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="P12">
-        <v>0.4316363472227054</v>
+        <v>0.2613149228497358</v>
       </c>
       <c r="Q12">
-        <v>2.248983680892334</v>
+        <v>2.561405320879556</v>
       </c>
       <c r="R12">
-        <v>20.240853128031</v>
+        <v>23.052647887916</v>
       </c>
       <c r="S12">
-        <v>0.0005757856466526487</v>
+        <v>0.0003971034289109699</v>
       </c>
       <c r="T12">
-        <v>0.0005757856466526487</v>
+        <v>0.0003971034289109698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8008510000000001</v>
+        <v>0.9121026666666667</v>
       </c>
       <c r="H13">
-        <v>2.402553</v>
+        <v>2.736308</v>
       </c>
       <c r="I13">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="J13">
-        <v>0.001333960057713973</v>
+        <v>0.001519635482659812</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.882473</v>
+        <v>0.544582</v>
       </c>
       <c r="N13">
-        <v>2.647419</v>
+        <v>1.633746</v>
       </c>
       <c r="O13">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802889</v>
       </c>
       <c r="P13">
-        <v>0.1356390856021789</v>
+        <v>0.05067490138802888</v>
       </c>
       <c r="Q13">
-        <v>0.706729384523</v>
+        <v>0.4967146944186667</v>
       </c>
       <c r="R13">
-        <v>6.360564460707</v>
+        <v>4.470432249768</v>
       </c>
       <c r="S13">
-        <v>0.0001809371224581531</v>
+        <v>7.700737822953568E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001809371224581531</v>
+        <v>7.700737822953565E-05</v>
       </c>
     </row>
   </sheetData>
